--- a/input.xlsx
+++ b/input.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caijinxu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github\glassdoorSpider\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Stock Code</t>
   </si>
@@ -95,31 +95,37 @@
   </si>
   <si>
     <t>http://www.glassdoor.com/Reviews/IBM-Reviews-E354.htm</t>
+  </si>
+  <si>
+    <t>http://www.glassdoor.com/Reviews/Aaron-s-Reviews-E1083.htm</t>
+  </si>
+  <si>
+    <t>Aaron's</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -127,7 +133,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,8 +164,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2131</v>
       </c>
@@ -489,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2142</v>
       </c>
@@ -500,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2145</v>
       </c>
@@ -511,7 +517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2179</v>
       </c>
@@ -522,7 +528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2195</v>
       </c>
@@ -533,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2221</v>
       </c>
@@ -544,7 +550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1111111</v>
       </c>
@@ -555,18 +561,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>354</v>
       </c>
@@ -577,8 +583,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9999999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>